--- a/my-python-code/DataProcess/AOP/source.xlsx
+++ b/my-python-code/DataProcess/AOP/source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rp701\IdeaProjects\my-python-code\DataProcess\AOP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3032818B-D74B-47B5-B84E-CC7B8E17D7FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9488C3B-6836-446E-908C-A54FF59B2744}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1428,7 +1428,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8555" uniqueCount="1117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8557" uniqueCount="1119">
   <si>
     <t>SO</t>
   </si>
@@ -5775,10 +5775,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>FY2020</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>Cust Name</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -5803,11 +5799,23 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>AccMgr1</t>
+    <t>Model</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>Model</t>
+    <t>a</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>r</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccMgr</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>FY20</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -6821,7 +6829,7 @@
   <dimension ref="A1:AA729"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="14" ySplit="3" topLeftCell="R4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="14" ySplit="3" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="AB3" sqref="AB3"/>
@@ -6842,7 +6850,7 @@
     <col min="11" max="11" width="8.08203125" style="17" customWidth="1"/>
     <col min="12" max="12" width="8.1640625" style="17" customWidth="1" outlineLevel="1"/>
     <col min="13" max="13" width="13.08203125" style="17" customWidth="1"/>
-    <col min="14" max="14" width="6.1640625" style="18" customWidth="1"/>
+    <col min="14" max="14" width="6.83203125" style="18" customWidth="1"/>
     <col min="15" max="26" width="6.33203125" style="19" customWidth="1" outlineLevel="1"/>
     <col min="27" max="27" width="9.4140625" style="19" bestFit="1" customWidth="1"/>
     <col min="28" max="16384" width="8.6640625" style="20"/>
@@ -6882,25 +6890,25 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="5" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>1109</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>1110</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>1111</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>1112</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>1113</v>
-      </c>
       <c r="G3" s="8" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>0</v>
@@ -6909,7 +6917,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>2</v>
@@ -6960,7 +6968,7 @@
         <v>44166</v>
       </c>
       <c r="AA3" s="14" t="s">
-        <v>1108</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="4" spans="1:27">
@@ -7006,12 +7014,14 @@
       <c r="N4" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="21"/>
+      <c r="O4" s="21" t="s">
+        <v>1116</v>
+      </c>
       <c r="P4" s="22">
         <v>10</v>
       </c>
       <c r="Q4" s="22">
-        <v>30</v>
+        <v>-30</v>
       </c>
       <c r="R4" s="22">
         <v>30</v>
@@ -7035,8 +7045,8 @@
       <c r="Y4" s="22"/>
       <c r="Z4" s="22"/>
       <c r="AA4" s="11">
-        <f>SUM(O4:Z4)</f>
-        <v>220</v>
+        <f t="shared" ref="AA4:AA67" si="0">SUM(O4:Z4)</f>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:27">
@@ -7083,7 +7093,9 @@
         <v>12</v>
       </c>
       <c r="O5" s="21"/>
-      <c r="P5" s="22"/>
+      <c r="P5" s="22" t="s">
+        <v>1115</v>
+      </c>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
@@ -7095,7 +7107,7 @@
       <c r="Y5" s="22"/>
       <c r="Z5" s="22"/>
       <c r="AA5" s="11">
-        <f t="shared" ref="AA5:AA68" si="0">SUM(O5:Z5)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -11185,7 +11197,7 @@
         <v>30</v>
       </c>
       <c r="AA68" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AA68:AA131" si="1">SUM(O68:Z68)</f>
         <v>31</v>
       </c>
     </row>
@@ -11249,7 +11261,7 @@
         <v>60</v>
       </c>
       <c r="AA69" s="11">
-        <f t="shared" ref="AA69:AA132" si="1">SUM(O69:Z69)</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
     </row>
@@ -15195,7 +15207,7 @@
       <c r="Y132" s="28"/>
       <c r="Z132" s="28"/>
       <c r="AA132" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="AA132:AA195" si="2">SUM(O132:Z132)</f>
         <v>729</v>
       </c>
     </row>
@@ -15253,7 +15265,7 @@
       <c r="Y133" s="28"/>
       <c r="Z133" s="28"/>
       <c r="AA133" s="11">
-        <f t="shared" ref="AA133:AA196" si="2">SUM(O133:Z133)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -19117,7 +19129,7 @@
       <c r="Y196" s="30"/>
       <c r="Z196" s="30"/>
       <c r="AA196" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="AA196:AA259" si="3">SUM(O196:Z196)</f>
         <v>0</v>
       </c>
     </row>
@@ -19181,7 +19193,7 @@
       <c r="Y197" s="30"/>
       <c r="Z197" s="30"/>
       <c r="AA197" s="11">
-        <f t="shared" ref="AA197:AA260" si="3">SUM(O197:Z197)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -23155,7 +23167,7 @@
       <c r="Y260" s="36"/>
       <c r="Z260" s="36"/>
       <c r="AA260" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="AA260:AA323" si="4">SUM(O260:Z260)</f>
         <v>0</v>
       </c>
     </row>
@@ -23239,7 +23251,7 @@
         <v>0</v>
       </c>
       <c r="AA261" s="11">
-        <f t="shared" ref="AA261:AA324" si="4">SUM(O261:Z261)</f>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
     </row>
@@ -27225,7 +27237,7 @@
       <c r="Y324" s="37"/>
       <c r="Z324" s="37"/>
       <c r="AA324" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="AA324:AA387" si="5">SUM(O324:Z324)</f>
         <v>0</v>
       </c>
     </row>
@@ -27281,7 +27293,7 @@
       <c r="Y325" s="37"/>
       <c r="Z325" s="37"/>
       <c r="AA325" s="11">
-        <f t="shared" ref="AA325:AA388" si="5">SUM(O325:Z325)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -31285,7 +31297,7 @@
         <v>5</v>
       </c>
       <c r="AA388" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="AA388:AA451" si="6">SUM(O388:Z388)</f>
         <v>10</v>
       </c>
     </row>
@@ -31341,7 +31353,7 @@
       <c r="Y389" s="51"/>
       <c r="Z389" s="51"/>
       <c r="AA389" s="11">
-        <f t="shared" ref="AA389:AA452" si="6">SUM(O389:Z389)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -35317,7 +35329,7 @@
       <c r="Y452" s="37"/>
       <c r="Z452" s="37"/>
       <c r="AA452" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="AA452:AA515" si="7">SUM(O452:Z452)</f>
         <v>0</v>
       </c>
     </row>
@@ -35379,7 +35391,7 @@
       <c r="Y453" s="37"/>
       <c r="Z453" s="37"/>
       <c r="AA453" s="11">
-        <f t="shared" ref="AA453:AA516" si="7">SUM(O453:Z453)</f>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
     </row>
@@ -38598,7 +38610,7 @@
         <v>10</v>
       </c>
       <c r="AA516" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="AA516:AA579" si="8">SUM(O516:Z516)</f>
         <v>0</v>
       </c>
     </row>
@@ -38642,7 +38654,7 @@
         <v>421</v>
       </c>
       <c r="AA517" s="11">
-        <f t="shared" ref="AA517:AA580" si="8">SUM(O517:Z517)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -41594,7 +41606,7 @@
         <v>975</v>
       </c>
       <c r="AA580" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="AA580:AA643" si="9">SUM(O580:Z580)</f>
         <v>0</v>
       </c>
     </row>
@@ -41641,7 +41653,7 @@
         <v>1</v>
       </c>
       <c r="AA581" s="11">
-        <f t="shared" ref="AA581:AA644" si="9">SUM(O581:Z581)</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -44687,7 +44699,7 @@
         <v>464</v>
       </c>
       <c r="AA644" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="AA644:AA707" si="10">SUM(O644:Z644)</f>
         <v>0</v>
       </c>
     </row>
@@ -44740,7 +44752,7 @@
         <v>2</v>
       </c>
       <c r="AA645" s="11">
-        <f t="shared" ref="AA645:AA708" si="10">SUM(O645:Z645)</f>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
     </row>
@@ -47430,7 +47442,7 @@
         <v>10</v>
       </c>
       <c r="AA708" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AA708" si="11">SUM(O708:Z708)</f>
         <v>0</v>
       </c>
     </row>
@@ -47470,7 +47482,7 @@
         <v>809</v>
       </c>
       <c r="AA709" s="11">
-        <f t="shared" ref="AA709:AA729" si="11">SUM(O709:Z709)</f>
+        <f t="shared" ref="AA709:AA729" si="12">SUM(O709:Z709)</f>
         <v>0</v>
       </c>
     </row>
@@ -47512,7 +47524,7 @@
         <v>809</v>
       </c>
       <c r="AA710" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -47552,7 +47564,7 @@
         <v>809</v>
       </c>
       <c r="AA711" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -47592,7 +47604,7 @@
         <v>809</v>
       </c>
       <c r="AA712" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -47632,7 +47644,7 @@
         <v>809</v>
       </c>
       <c r="AA713" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -47672,7 +47684,7 @@
         <v>809</v>
       </c>
       <c r="AA714" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -47712,7 +47724,7 @@
         <v>809</v>
       </c>
       <c r="AA715" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -47752,7 +47764,7 @@
         <v>809</v>
       </c>
       <c r="AA716" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -47792,7 +47804,7 @@
         <v>809</v>
       </c>
       <c r="AA717" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -47832,7 +47844,7 @@
         <v>809</v>
       </c>
       <c r="AA718" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -47872,7 +47884,7 @@
         <v>809</v>
       </c>
       <c r="AA719" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -47914,7 +47926,7 @@
         <v>809</v>
       </c>
       <c r="AA720" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -47954,7 +47966,7 @@
         <v>919</v>
       </c>
       <c r="AA721" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -47994,7 +48006,7 @@
         <v>809</v>
       </c>
       <c r="AA722" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -48036,7 +48048,7 @@
         <v>464</v>
       </c>
       <c r="AA723" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -48076,7 +48088,7 @@
         <v>809</v>
       </c>
       <c r="AA724" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -48116,7 +48128,7 @@
         <v>809</v>
       </c>
       <c r="AA725" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -48156,7 +48168,7 @@
         <v>809</v>
       </c>
       <c r="AA726" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -48196,7 +48208,7 @@
         <v>809</v>
       </c>
       <c r="AA727" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -48254,7 +48266,7 @@
         <v>10</v>
       </c>
       <c r="AA728" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
     </row>
@@ -48316,7 +48328,7 @@
       </c>
       <c r="Z729" s="59"/>
       <c r="AA729" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
     </row>
